--- a/wp-content/plugins/downloadFile/question/question_template.xlsx
+++ b/wp-content/plugins/downloadFile/question/question_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FD19B052-4C97-43E8-8129-B9A7C5582A01}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD3037A-B624-4EEA-9AD8-F61BD81C4DA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>答案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,32 +70,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>题目1问题1答案选项, 格式:
-答案1&lt;br&gt;答案2&lt;br&gt;答案3&lt;br&gt;答案4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目1问题1答案选项答案, 格式:
-正确答案为答案1则填1, 答案2则填2.
-以此类推</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>题目1问题2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>题目1问题2答案选项, 格式:
-答案1&lt;br&gt;答案2&lt;br&gt;答案3&lt;br&gt;答案4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目1问题2答案选项答案, 格式:
-正确答案为答案1则填1, 答案2则填2.
-以此类推3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>题目2问题1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,22 +86,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>题目2问题1答案选项, 格式:
-答案1&lt;br&gt;答案2&lt;br&gt;答案3&lt;br&gt;答案4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目2问题2答案选项, 格式:
-答案1&lt;br&gt;答案2&lt;br&gt;答案3&lt;br&gt;答案4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目2问题3答案选项, 格式:
-答案1&lt;br&gt;答案2&lt;br&gt;答案3&lt;br&gt;答案4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上</t>
+    <t>##答案1
+##答案2
+##答案3
+##答案4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##答案1
+##答案2
+##答案3
+##答案4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,6 +165,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -200,10 +177,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +461,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,7 +469,7 @@
     <col min="2" max="2" width="40.375" customWidth="1"/>
     <col min="3" max="3" width="100.75" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="39.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="39.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -513,7 +486,7 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -521,97 +494,97 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
+      <c r="F4" s="3">
+        <v>3</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>

--- a/wp-content/plugins/downloadFile/question/question_template.xlsx
+++ b/wp-content/plugins/downloadFile/question/question_template.xlsx
@@ -3,16 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD3037A-B624-4EEA-9AD8-F61BD81C4DA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F521A8F-5B84-49AE-BC80-DA3F3D548759}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc520104476" localSheetId="0">Sheet1!$B$2</definedName>
-    <definedName name="_Toc520104477" localSheetId="0">Sheet1!$B$4</definedName>
+    <definedName name="_Toc520104477" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,11 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>文章序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,61 +43,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选项列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目1内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目2内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>问题列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>题目1问题1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目1问题2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目2问题1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目2问题2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目2问题3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##答案1
-##答案2
-##答案3
-##答案4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##答案1
-##答案2
-##答案3
-##答案4</t>
+    <t>##答案一
+##答案二
+##答案三
+##答案四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案选项列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确答案序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是文章名称(作者)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是文章内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题3</t>
+  </si>
+  <si>
+    <t>问题4</t>
+  </si>
+  <si>
+    <t>问题5</t>
+  </si>
+  <si>
+    <t>问题6</t>
+  </si>
+  <si>
+    <t>问题7</t>
+  </si>
+  <si>
+    <t>问题8</t>
+  </si>
+  <si>
+    <t>问题9</t>
+  </si>
+  <si>
+    <t>问题10</t>
+  </si>
+  <si>
+    <t>正确答案填答案序号,若答案为多选,则答案序号之间使用英文逗号分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,29 +142,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
-      <color theme="1"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -150,33 +200,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,149 +536,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40.375" customWidth="1"/>
-    <col min="3" max="3" width="100.75" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="39.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2">
+      <c r="E7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A4:A6"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39D5253-2F3F-45E2-86F0-64306881A0A3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ED07F4-6859-48D2-8DC0-CF47329AFA6E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71659F90-3805-48F8-85AB-3A4285C968E3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C5D94A-3373-4B7D-BA58-A1D2AFB82B28}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8229F4BD-B079-4642-8A19-5B7C009CFFE5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wp-content/plugins/downloadFile/question/question_template.xlsx
+++ b/wp-content/plugins/downloadFile/question/question_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F521A8F-5B84-49AE-BC80-DA3F3D548759}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF144DF-E6B4-4894-9DEB-F143CB311F00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>文章序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,13 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>##答案一
-##答案二
-##答案三
-##答案四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这里是文章名称(作者)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这里是文章内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,15 +99,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1#4</t>
+    <t>这里是文章名称222(作者)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案一
+答案二
+答案三
+答案四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -235,13 +223,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -536,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -567,183 +549,359 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="11">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="6" t="s">
+      <c r="E18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="6" t="s">
+      <c r="E19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="6" t="s">
+      <c r="E20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="6" t="s">
+      <c r="E21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10"/>
+      <c r="E22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C11"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
